--- a/datas.xlsx
+++ b/datas.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="report" sheetId="1" r:id="rId1"/>
+    <sheet name="hollidays" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="16">
   <si>
     <t>DATE</t>
   </si>
@@ -29,17 +30,64 @@
   <si>
     <t>AHT_ACT</t>
   </si>
+  <si>
+    <t>Событие</t>
+  </si>
+  <si>
+    <t>новый Год</t>
+  </si>
+  <si>
+    <t>День Защитника Отечества</t>
+  </si>
+  <si>
+    <t>Рождество</t>
+  </si>
+  <si>
+    <t>8 Марта</t>
+  </si>
+  <si>
+    <t>9 мая</t>
+  </si>
+  <si>
+    <t>День России</t>
+  </si>
+  <si>
+    <t>День Народного Единства</t>
+  </si>
+  <si>
+    <t>первое января</t>
+  </si>
+  <si>
+    <t>МАЙСКИЕ ПРАЗДНИКИ</t>
+  </si>
+  <si>
+    <t>ДНЕ</t>
+  </si>
+  <si>
+    <t>31-е дек</t>
+  </si>
+  <si>
+    <t>Голосование</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -51,8 +99,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -65,8 +119,14 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -109,29 +169,372 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -142,6 +545,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="СПЕЦСОБЫТИЯ" displayName="СПЕЦСОБЫТИЯ" ref="A1:B74" totalsRowShown="0" headerRowDxfId="21" tableBorderDxfId="20">
+  <autoFilter ref="A1:B74"/>
+  <sortState ref="A2:B72">
+    <sortCondition ref="B1:B72"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" name="DATE" dataDxfId="19"/>
+    <tableColumn id="2" name="Событие" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -407,16 +824,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1217"/>
+  <dimension ref="A1:E1248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
@@ -13985,8 +14403,1030 @@
         <v>283.38108551045985</v>
       </c>
     </row>
+    <row r="1218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1218" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B1218">
+        <v>8287</v>
+      </c>
+      <c r="C1218">
+        <v>286.1684696730278</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1219" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B1219">
+        <v>7797</v>
+      </c>
+      <c r="C1219">
+        <v>283.93369152142583</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1220" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B1220">
+        <v>6780</v>
+      </c>
+      <c r="C1220">
+        <v>280.77311844781724</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1221" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B1221">
+        <v>10809</v>
+      </c>
+      <c r="C1221">
+        <v>286.28734547513443</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1222" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B1222">
+        <v>10504</v>
+      </c>
+      <c r="C1222">
+        <v>296.82428083861527</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1223" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B1223">
+        <v>17441</v>
+      </c>
+      <c r="C1223">
+        <v>310.80393421476947</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1224" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B1224">
+        <v>15609</v>
+      </c>
+      <c r="C1224">
+        <v>304.65863453815263</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1225" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B1225">
+        <v>12835</v>
+      </c>
+      <c r="C1225">
+        <v>303.84396928919341</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1226" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B1226">
+        <v>5924</v>
+      </c>
+      <c r="C1226">
+        <v>301.82319877363307</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1227" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B1227">
+        <v>7970</v>
+      </c>
+      <c r="C1227">
+        <v>305.8789262487893</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1228" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B1228">
+        <v>10792</v>
+      </c>
+      <c r="C1228">
+        <v>300.65069665118557</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1229" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B1229">
+        <v>16229</v>
+      </c>
+      <c r="C1229">
+        <v>296.8397597207566</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1230" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B1230">
+        <v>15930</v>
+      </c>
+      <c r="C1230">
+        <v>300.63687816502835</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1231" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B1231">
+        <v>15252</v>
+      </c>
+      <c r="C1231">
+        <v>297.51074316519055</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1232" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B1232">
+        <v>14765</v>
+      </c>
+      <c r="C1232">
+        <v>292.23780750971093</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1233" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B1233">
+        <v>10557</v>
+      </c>
+      <c r="C1233">
+        <v>296.19502407704647</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1234" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B1234">
+        <v>7696</v>
+      </c>
+      <c r="C1234">
+        <v>287.70910600608909</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1235" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B1235">
+        <v>16364</v>
+      </c>
+      <c r="C1235">
+        <v>289.8680228648285</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1236" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B1236">
+        <v>15831</v>
+      </c>
+      <c r="C1236">
+        <v>283.48272357723573</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1237" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B1237">
+        <v>15590</v>
+      </c>
+      <c r="C1237">
+        <v>283.48378883041926</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1238" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B1238">
+        <v>13398</v>
+      </c>
+      <c r="C1238">
+        <v>294.53239010500096</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1239" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B1239">
+        <v>13525</v>
+      </c>
+      <c r="C1239">
+        <v>286.08386438949782</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1240" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B1240">
+        <v>9848</v>
+      </c>
+      <c r="C1240">
+        <v>287.11729673744168</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1241" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B1241">
+        <v>7054</v>
+      </c>
+      <c r="C1241">
+        <v>280.05357142857144</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1242" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B1242">
+        <v>16863</v>
+      </c>
+      <c r="C1242">
+        <v>285.82611838406564</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1243" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B1243">
+        <v>16852</v>
+      </c>
+      <c r="C1243">
+        <v>284.45994937535733</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1244" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B1244">
+        <v>15573</v>
+      </c>
+      <c r="C1244">
+        <v>285.58806354658651</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1245" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B1245">
+        <v>16327</v>
+      </c>
+      <c r="C1245">
+        <v>284.49348377503725</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1246" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B1246">
+        <v>16407</v>
+      </c>
+      <c r="C1246">
+        <v>293.36496815286625</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1247" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B1247">
+        <v>10641</v>
+      </c>
+      <c r="C1247">
+        <v>284.34642032332562</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1248" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B1248">
+        <v>8426</v>
+      </c>
+      <c r="C1248">
+        <v>283.44180351483732</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>43830</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="24">
+        <v>44196</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="24">
+        <v>43465</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="24">
+        <v>43100</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>42802</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>43167</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>43168</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>43532</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>43899</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>42863</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>42864</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>43229</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="24">
+        <v>43960</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="19">
+        <v>43885</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="19">
+        <v>42789</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>42790</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>42791</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>42792</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="19">
+        <v>43154</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="19">
+        <v>43155</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="19">
+        <v>43156</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="19">
+        <v>43547</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="19">
+        <v>43045</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="16">
+        <v>42898</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="16">
+        <v>43262</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
+        <v>43263</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="22">
+        <v>43628</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="22">
+        <v>43994</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="22">
+        <v>43045</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="23">
+        <v>43409</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="23">
+        <v>43773</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="19">
+        <v>42856</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="19">
+        <v>43221</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="19">
+        <v>43222</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="20">
+        <v>43586</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="20">
+        <v>43587</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="20">
+        <v>43588</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="20">
+        <v>43589</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="20">
+        <v>43590</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="20">
+        <v>43594</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="20">
+        <v>43595</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="20">
+        <v>43596</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="20">
+        <v>43597</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="24">
+        <v>43955</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="24">
+        <v>43956</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="24">
+        <v>43962</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="12">
+        <v>43101</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="12">
+        <v>43102</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="12">
+        <v>43105</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="12">
+        <v>43106</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="12">
+        <v>43108</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="12">
+        <v>43467</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="12">
+        <v>43468</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="12">
+        <v>43469</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="12">
+        <v>43470</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="12">
+        <v>43471</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="12">
+        <v>43472</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="12">
+        <v>43473</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="20">
+        <v>43832</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="20">
+        <v>43833</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="20">
+        <v>43834</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="20">
+        <v>43835</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="20">
+        <v>43836</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="20">
+        <v>43837</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="20">
+        <v>43838</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="12">
+        <v>42736</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="12">
+        <v>43101</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="12">
+        <v>43466</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="20">
+        <v>43831</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="12">
+        <f>A70+1</f>
+        <v>43832</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="12">
+        <v>43107</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="24">
+        <v>44139</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="24">
+        <v>44013</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B35">
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Не установлено">
+      <formula>NOT(ISERROR(SEARCH("Не установлено",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="Авария">
+      <formula>NOT(ISERROR(SEARCH("Авария",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="Акция">
+      <formula>NOT(ISERROR(SEARCH("Акция",B2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="Не установлено">
+      <formula>NOT(ISERROR(SEARCH("Не установлено",B66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Авария">
+      <formula>NOT(ISERROR(SEARCH("Авария",B66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="Акция">
+      <formula>NOT(ISERROR(SEARCH("Акция",B66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Не установлено">
+      <formula>NOT(ISERROR(SEARCH("Не установлено",B67)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Авария">
+      <formula>NOT(ISERROR(SEARCH("Авария",B67)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Акция">
+      <formula>NOT(ISERROR(SEARCH("Акция",B67)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Не установлено">
+      <formula>NOT(ISERROR(SEARCH("Не установлено",B68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Авария">
+      <formula>NOT(ISERROR(SEARCH("Авария",B68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Акция">
+      <formula>NOT(ISERROR(SEARCH("Акция",B68)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Не установлено">
+      <formula>NOT(ISERROR(SEARCH("Не установлено",B69)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Авария">
+      <formula>NOT(ISERROR(SEARCH("Авария",B69)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Акция">
+      <formula>NOT(ISERROR(SEARCH("Акция",B69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Не установлено">
+      <formula>NOT(ISERROR(SEARCH("Не установлено",B73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Авария">
+      <formula>NOT(ISERROR(SEARCH("Авария",B73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Акция">
+      <formula>NOT(ISERROR(SEARCH("Акция",B73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>